--- a/DataWrangling/week_9_Clustering/Practicals/Week_9_Clustering/Formula_N_param.xlsx
+++ b/DataWrangling/week_9_Clustering/Practicals/Week_9_Clustering/Formula_N_param.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hansf\Documents\GitHub\ADS\DataWrangling\week_9_Clustering\Practicals\Week_9_Clustering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998C6F00-CE86-49E2-94D2-0AC22FDD667D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD5A311-2F05-41D4-B285-A385A23CBB0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A98930AB-4D9D-4C1F-9A82-FAFEA028B664}"/>
   </bookViews>
@@ -437,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF783F3C-C2C9-49A5-A149-6D3F1A6E92B9}">
-  <dimension ref="B1:L22"/>
+  <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,23 +449,23 @@
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -479,7 +479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>5</v>
       </c>
@@ -496,122 +496,54 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
         <f>$E$1-1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <f>$E$1*$E$2</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <f>$E$1*$E$2</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <f>$E$1*(($E$2*($E$2-1))/2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <f>SUM(C6:F6)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7">
         <f>$E$1-1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <f>$E$1*$E$2</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <f>$E$2</f>
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <f>(($E$2*($E$2-1))/2)</f>
         <v>1</v>
-      </c>
-      <c r="F7">
-        <f>$E$1*(($E$2*($E$2-1))/2)</f>
-        <v>0</v>
       </c>
       <c r="G7">
         <f>SUM(C7:F7)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="G14">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H14">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="G15">
-        <v>4.8</v>
-      </c>
-      <c r="H15">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <f>K16/K15</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="G16">
-        <v>-2</v>
-      </c>
-      <c r="H16">
-        <v>-0.1</v>
-      </c>
-      <c r="K16">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G17">
-        <v>5</v>
-      </c>
-      <c r="H17">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G18">
-        <v>-0.3</v>
-      </c>
-      <c r="H18">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G19">
-        <v>0.1</v>
-      </c>
-      <c r="H19">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G22">
-        <f>AVERAGE(G14:G19)</f>
-        <v>2.1166666666666663</v>
-      </c>
-      <c r="H22">
-        <f>AVERAGE(H14:H19)</f>
-        <v>2.2000000000000002</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
